--- a/Presentation/Results.xlsx
+++ b/Presentation/Results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Benji\Desktop\WARWICK\aaYear 3\CS351 - Third Year Project\CS351-Reports\Presentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:0_{EB5D0E27-1C67-48FF-875C-98EAECBA5E1B}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30D7B99C-0869-43A8-B4BB-96C2676B501A}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4786E548-33C8-403C-90D7-54C82E2EF997}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="30">
   <si>
     <t>spread</t>
   </si>
@@ -70,6 +70,57 @@
   </si>
   <si>
     <t>max ping</t>
+  </si>
+  <si>
+    <t>5ms</t>
+  </si>
+  <si>
+    <t>label</t>
+  </si>
+  <si>
+    <t>1ms, no fpga</t>
+  </si>
+  <si>
+    <t>1ms, 2ms fpga 1</t>
+  </si>
+  <si>
+    <t>1ms, 2ms fpga 2</t>
+  </si>
+  <si>
+    <t>1ms, 2ms fpga 3</t>
+  </si>
+  <si>
+    <t>1ms, 5ms fpga 1</t>
+  </si>
+  <si>
+    <t>1ms, 5ms fpga 2</t>
+  </si>
+  <si>
+    <t>1ms, 5ms fpga 3</t>
+  </si>
+  <si>
+    <t>Sum</t>
+  </si>
+  <si>
+    <t>Average</t>
+  </si>
+  <si>
+    <t>Running Total</t>
+  </si>
+  <si>
+    <t>Count</t>
+  </si>
+  <si>
+    <t>10ms</t>
+  </si>
+  <si>
+    <t>20ms</t>
+  </si>
+  <si>
+    <t>None</t>
+  </si>
+  <si>
+    <t>FPGA Level</t>
   </si>
 </sst>
 </file>
@@ -113,6 +164,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFF0F4FA"/>
+      <color rgb="FF0C1624"/>
+      <color rgb="FF1A2A46"/>
+      <color rgb="FFF16953"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -122,6 +181,4104 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="F0F4FA"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB">
+                <a:solidFill>
+                  <a:srgbClr val="F0F4FA"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Chart Title</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="F0F4FA"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$D$39</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1ms, no fpga</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="F16953"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$C$40:$C$45</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$D$40:$D$45</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>2.077</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.1029999999999998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.1349999999999998</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.1690000000000005</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10.106999999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>12.093999999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-94C0-42D9-9608-DA5823BBC395}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$E$39</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1ms, 2ms fpga 1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="00B050"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$C$40:$C$45</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$E$41:$E$45</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>4.0789999999999997</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.11</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.1449999999999996</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10.169</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>12.194000000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-94C0-42D9-9608-DA5823BBC395}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$F$39</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1ms, 2ms fpga 2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$C$40:$C$45</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$F$42:$F$45</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>4.0860000000000003</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.1210000000000004</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.1029999999999998</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10.185</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-94C0-42D9-9608-DA5823BBC395}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$G$39</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1ms, 2ms fpga 3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$C$40:$C$45</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$G$43:$G$45</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>4.0869999999999997</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.1269999999999998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.1430000000000007</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-94C0-42D9-9608-DA5823BBC395}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$H$39</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1ms, 5ms fpga 1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="F16953"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$C$40:$C$45</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$H$41:$H$45</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>7.0960000000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9.125</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>11.157</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>13.15</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>15.1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-94C0-42D9-9608-DA5823BBC395}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$I$39</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1ms, 5ms fpga 2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="F16953"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$C$40:$C$45</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$I$42:$I$45</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>7.0979999999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9.1210000000000004</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>11.137</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>13.161</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-94C0-42D9-9608-DA5823BBC395}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$J$39</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1ms, 5ms fpga 3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="F16953"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$J$43:$J$45</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>7.0979999999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9.1280000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>11.154</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000007-94C0-42D9-9608-DA5823BBC395}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1053042768"/>
+        <c:axId val="1096387584"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1053042768"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:srgbClr val="F0F4FA"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:srgbClr val="F0F4FA"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US">
+                    <a:solidFill>
+                      <a:srgbClr val="F0F4FA"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>Depth</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:srgbClr val="F0F4FA"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:srgbClr val="F0F4FA"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="F0F4FA"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1096387584"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1096387584"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:srgbClr val="F0F4FA"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:srgbClr val="F0F4FA"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB">
+                    <a:solidFill>
+                      <a:srgbClr val="F0F4FA"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>Minimum Round Trip Time/ms</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:srgbClr val="F0F4FA"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="F0F4FA"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1053042768"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="F0F4FA"/>
+          </a:solidFill>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="F0F4FA"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:pattFill prst="pct40">
+      <a:fgClr>
+        <a:srgbClr val="1A2A46"/>
+      </a:fgClr>
+      <a:bgClr>
+        <a:srgbClr val="0C1624"/>
+      </a:bgClr>
+    </a:pattFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$V$61</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>None</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$U$62:$U$80</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>20</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$V$62:$V$80</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>2.0790000000000002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.1050000000000004</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.1349999999999998</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.1549999999999994</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10.182</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>12.21</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>14.228999999999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>16.251999999999999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>18.289000000000001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>20.323</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>22.376000000000001</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>24.402999999999999</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>26.193999999999999</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>28.468</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>30.446000000000002</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>32.512</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>34.526000000000003</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>36.615000000000002</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>38.594000000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-F533-40AC-B544-6749C2E7D662}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$W$61</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$U$62:$U$80</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>20</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$W$62:$W$80</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="1">
+                  <c:v>4.0709999999999997</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.1159999999999997</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.1419999999999995</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10.114000000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>12.183</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>14.244999999999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>16.253</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>18.265999999999998</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>20.343</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>22.350999999999999</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>24.385999999999999</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>26.419</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>28.443000000000001</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>30.507999999999999</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>32.523000000000003</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>34.515000000000001</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>36.545000000000002</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>38.628999999999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-F533-40AC-B544-6749C2E7D662}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$X$61</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$U$62:$U$80</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>20</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$X$62:$X$80</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="2">
+                  <c:v>4.0910000000000002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.1159999999999997</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8.1020000000000003</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10.162000000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>12.188000000000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>14.223000000000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>16.231999999999999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>18.309999999999999</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>20.309000000000001</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>22.361000000000001</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>24.381</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>26.4</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>28.449000000000002</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>30.504000000000001</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>32.485999999999997</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>34.36</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>36.383000000000003</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-F533-40AC-B544-6749C2E7D662}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$Y$61</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$U$62:$U$80</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>20</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$Y$62:$Y$80</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="3">
+                  <c:v>4.0819999999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.1079999999999997</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8.0790000000000006</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>10.172000000000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>12.199</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>14.212</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>16.251999999999999</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>18.273</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>20.323</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>22.337</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>24.382000000000001</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>26.419</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>28.456</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>30.436</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>32.53</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>34.268999999999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-F533-40AC-B544-6749C2E7D662}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$Z$61</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$U$62:$U$80</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>20</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$Z$62:$Z$80</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="4">
+                  <c:v>4.0949999999999998</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.1260000000000003</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8.0809999999999995</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>10.220000000000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>12.192</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>14.215999999999999</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>16.236000000000001</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>18.288</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>20.305</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>22.361999999999998</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>24.388999999999999</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>26.437000000000001</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>28.427</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>30.593</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>32.520000000000003</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-F533-40AC-B544-6749C2E7D662}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$AA$61</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$U$62:$U$80</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>20</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$AA$62:$AA$80</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="5">
+                  <c:v>4.0940000000000003</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6.1289999999999996</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8.1310000000000002</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>10.170999999999999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>12.183999999999999</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>14.222</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>16.262</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>18.279</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>20.297000000000001</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>22.460999999999999</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>24.349</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>26.451000000000001</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>28.454000000000001</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>30.488</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-F533-40AC-B544-6749C2E7D662}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$AB$61</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>6</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$U$62:$U$80</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>20</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$AB$62:$AB$80</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="6">
+                  <c:v>4.069</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6.1159999999999997</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8.1440000000000001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10.173999999999999</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>12.22</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>14.25</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>16.263999999999999</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>18.297000000000001</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>20.323</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>22.306000000000001</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>24.385000000000002</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>26.298999999999999</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>28.454999999999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-F533-40AC-B544-6749C2E7D662}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="7"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$AC$61</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>7</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$U$62:$U$80</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>20</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$AC$62:$AC$80</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="7">
+                  <c:v>4.093</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>6.1150000000000002</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>8.1370000000000005</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10.16</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12.207000000000001</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>14.21</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>16.238</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>18.315000000000001</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>20.295000000000002</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>22.327999999999999</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>24.391999999999999</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>26.396999999999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000007-F533-40AC-B544-6749C2E7D662}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="8"/>
+          <c:order val="8"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$AD$61</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>8</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$U$62:$U$80</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>20</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$AD$62:$AD$80</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="8">
+                  <c:v>4.0940000000000003</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>6.1180000000000003</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>8.1530000000000005</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>10.173999999999999</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12.204000000000001</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14.215</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>16.25</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>18.303999999999998</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>20.315000000000001</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>22.332999999999998</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>24.367999999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000008-F533-40AC-B544-6749C2E7D662}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="9"/>
+          <c:order val="9"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$AE$61</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>9</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$U$62:$U$80</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>20</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$AE$62:$AE$80</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="9">
+                  <c:v>4.085</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>6.1239999999999997</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>8.1389999999999993</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>10.17</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>12.188000000000001</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>14.221</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16.25</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>18.318999999999999</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>20.326000000000001</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>22.294</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000009-F533-40AC-B544-6749C2E7D662}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="10"/>
+          <c:order val="10"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$AF$61</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$U$62:$U$80</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>20</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$AF$62:$AF$80</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="10">
+                  <c:v>4.0919999999999996</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>6.1120000000000001</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>8.1579999999999995</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>10.161</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>12.193</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>14.225</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>16.236000000000001</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18.266999999999999</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>20.337</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000A-F533-40AC-B544-6749C2E7D662}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1047039920"/>
+        <c:axId val="964927072"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1047039920"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:srgbClr val="F0F4FA"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US">
+                    <a:solidFill>
+                      <a:srgbClr val="F0F4FA"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>Network Depth</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:srgbClr val="F0F4FA"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="F0F4FA"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="964927072"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="964927072"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:srgbClr val="F0F4FA"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB">
+                    <a:solidFill>
+                      <a:srgbClr val="F0F4FA"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>Minimum Round</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-GB" baseline="0">
+                    <a:solidFill>
+                      <a:srgbClr val="F0F4FA"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t> Trip Time / ms</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:srgbClr val="F0F4FA"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="F0F4FA"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1047039920"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="F0F4FA"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:pattFill prst="pct40">
+      <a:fgClr>
+        <a:srgbClr val="1A2A46"/>
+      </a:fgClr>
+      <a:bgClr>
+        <a:srgbClr val="0C1624"/>
+      </a:bgClr>
+    </a:pattFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>263337</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>68355</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>190499</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>78441</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{11B18B89-3603-47DD-B3AE-B3EB5972A54D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>918481</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>707571</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>160564</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{70484A36-4803-448A-85EA-09E0D3585149}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -421,18 +4578,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{769D0CF3-2349-4D83-A903-AD18B84C5D16}">
-  <dimension ref="A1:K16"/>
+  <dimension ref="A1:AF178"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L17" sqref="L17"/>
+    <sheetView tabSelected="1" topLeftCell="X40" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AJ34" sqref="AJ34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="8" max="8" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="2.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="10" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="6.28515625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="23" max="31" width="15" bestFit="1" customWidth="1"/>
+    <col min="32" max="56" width="16" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -464,7 +4630,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>2</v>
       </c>
@@ -493,7 +4659,7 @@
         <v>2.81</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B3">
         <v>3</v>
       </c>
@@ -507,7 +4673,7 @@
         <v>5.3819999999999997</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B4">
         <v>4</v>
       </c>
@@ -521,7 +4687,7 @@
         <v>8.1010000000000009</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B5">
         <v>5</v>
       </c>
@@ -535,7 +4701,7 @@
         <v>10.956</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B6">
         <v>6</v>
       </c>
@@ -549,7 +4715,7 @@
         <v>26.512</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B7">
         <v>7</v>
       </c>
@@ -563,7 +4729,7 @@
         <v>87.757999999999996</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>0</v>
       </c>
@@ -594,8 +4760,38 @@
       <c r="K9" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M9" t="s">
+        <v>0</v>
+      </c>
+      <c r="N9" t="s">
+        <v>1</v>
+      </c>
+      <c r="O9" t="s">
+        <v>2</v>
+      </c>
+      <c r="P9" t="s">
+        <v>3</v>
+      </c>
+      <c r="R9" t="s">
+        <v>4</v>
+      </c>
+      <c r="S9" t="s">
+        <v>5</v>
+      </c>
+      <c r="T9" t="s">
+        <v>6</v>
+      </c>
+      <c r="U9" t="s">
+        <v>11</v>
+      </c>
+      <c r="V9" t="s">
+        <v>7</v>
+      </c>
+      <c r="W9" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>2</v>
       </c>
@@ -617,8 +4813,29 @@
       <c r="H10" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M10">
+        <v>2</v>
+      </c>
+      <c r="N10">
+        <v>2</v>
+      </c>
+      <c r="O10">
+        <v>10</v>
+      </c>
+      <c r="P10" t="s">
+        <v>9</v>
+      </c>
+      <c r="R10">
+        <v>1</v>
+      </c>
+      <c r="S10">
+        <v>504</v>
+      </c>
+      <c r="T10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B11">
         <v>3</v>
       </c>
@@ -631,8 +4848,20 @@
       <c r="K11">
         <v>4.8070000000000004</v>
       </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="N11">
+        <v>3</v>
+      </c>
+      <c r="U11">
+        <v>7.0960000000000001</v>
+      </c>
+      <c r="V11">
+        <v>7.25</v>
+      </c>
+      <c r="W11">
+        <v>7.8129999999999997</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B12">
         <v>4</v>
       </c>
@@ -645,8 +4874,20 @@
       <c r="K12">
         <v>7.2080000000000002</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="N12">
+        <v>4</v>
+      </c>
+      <c r="U12">
+        <v>9.125</v>
+      </c>
+      <c r="V12">
+        <v>9.3759999999999994</v>
+      </c>
+      <c r="W12">
+        <v>10.196</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B13">
         <v>5</v>
       </c>
@@ -659,8 +4900,20 @@
       <c r="K13">
         <v>13.095000000000001</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="N13">
+        <v>5</v>
+      </c>
+      <c r="U13">
+        <v>11.157</v>
+      </c>
+      <c r="V13">
+        <v>11.819000000000001</v>
+      </c>
+      <c r="W13">
+        <v>14.94</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B14">
         <v>6</v>
       </c>
@@ -673,8 +4926,20 @@
       <c r="K14">
         <v>18.562999999999999</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="N14">
+        <v>6</v>
+      </c>
+      <c r="U14">
+        <v>13.15</v>
+      </c>
+      <c r="V14">
+        <v>15.273</v>
+      </c>
+      <c r="W14">
+        <v>26.824000000000002</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B15">
         <v>7</v>
       </c>
@@ -687,19 +4952,2443 @@
       <c r="K15">
         <v>55.473999999999997</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="I16">
-        <v>271.57299999999998</v>
-      </c>
-      <c r="J16">
-        <v>271.57299999999998</v>
-      </c>
-      <c r="K16">
-        <v>271.57299999999998</v>
+      <c r="N15">
+        <v>7</v>
+      </c>
+      <c r="U15">
+        <v>15.1</v>
+      </c>
+      <c r="V15">
+        <v>24.8</v>
+      </c>
+      <c r="W15">
+        <v>67.394999999999996</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="B16">
+        <v>8</v>
+      </c>
+      <c r="I16" t="s">
+        <v>8</v>
+      </c>
+      <c r="J16" t="s">
+        <v>8</v>
+      </c>
+      <c r="K16" t="s">
+        <v>8</v>
+      </c>
+      <c r="N16">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>0</v>
+      </c>
+      <c r="B18" t="s">
+        <v>1</v>
+      </c>
+      <c r="C18" t="s">
+        <v>2</v>
+      </c>
+      <c r="D18" t="s">
+        <v>3</v>
+      </c>
+      <c r="F18" t="s">
+        <v>4</v>
+      </c>
+      <c r="G18" t="s">
+        <v>5</v>
+      </c>
+      <c r="H18" t="s">
+        <v>6</v>
+      </c>
+      <c r="I18" t="s">
+        <v>11</v>
+      </c>
+      <c r="J18" t="s">
+        <v>7</v>
+      </c>
+      <c r="K18" t="s">
+        <v>12</v>
+      </c>
+      <c r="M18" t="s">
+        <v>0</v>
+      </c>
+      <c r="N18" t="s">
+        <v>1</v>
+      </c>
+      <c r="O18" t="s">
+        <v>2</v>
+      </c>
+      <c r="P18" t="s">
+        <v>3</v>
+      </c>
+      <c r="R18" t="s">
+        <v>4</v>
+      </c>
+      <c r="S18" t="s">
+        <v>5</v>
+      </c>
+      <c r="T18" t="s">
+        <v>6</v>
+      </c>
+      <c r="U18" t="s">
+        <v>11</v>
+      </c>
+      <c r="V18" t="s">
+        <v>7</v>
+      </c>
+      <c r="W18" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="19" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>2</v>
+      </c>
+      <c r="B19">
+        <v>2</v>
+      </c>
+      <c r="C19">
+        <v>10</v>
+      </c>
+      <c r="D19" t="s">
+        <v>9</v>
+      </c>
+      <c r="F19">
+        <v>2</v>
+      </c>
+      <c r="G19">
+        <v>504</v>
+      </c>
+      <c r="H19" t="s">
+        <v>10</v>
+      </c>
+      <c r="M19">
+        <v>2</v>
+      </c>
+      <c r="N19">
+        <v>2</v>
+      </c>
+      <c r="O19">
+        <v>10</v>
+      </c>
+      <c r="P19" t="s">
+        <v>9</v>
+      </c>
+      <c r="R19">
+        <v>2</v>
+      </c>
+      <c r="S19">
+        <v>504</v>
+      </c>
+      <c r="T19" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="20" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="B20">
+        <v>3</v>
+      </c>
+      <c r="N20">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="B21">
+        <v>4</v>
+      </c>
+      <c r="I21">
+        <v>4.0860000000000003</v>
+      </c>
+      <c r="J21">
+        <v>4.1749999999999998</v>
+      </c>
+      <c r="K21">
+        <v>4.6379999999999999</v>
+      </c>
+      <c r="N21">
+        <v>4</v>
+      </c>
+      <c r="U21">
+        <v>7.0979999999999999</v>
+      </c>
+      <c r="V21">
+        <v>7.2350000000000003</v>
+      </c>
+      <c r="W21">
+        <v>7.7859999999999996</v>
+      </c>
+    </row>
+    <row r="22" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="B22">
+        <v>5</v>
+      </c>
+      <c r="I22">
+        <v>6.1210000000000004</v>
+      </c>
+      <c r="J22">
+        <v>6.2939999999999996</v>
+      </c>
+      <c r="K22">
+        <v>7.2709999999999999</v>
+      </c>
+      <c r="N22">
+        <v>5</v>
+      </c>
+      <c r="U22">
+        <v>9.1210000000000004</v>
+      </c>
+      <c r="V22">
+        <v>10.365</v>
+      </c>
+      <c r="W22">
+        <v>20.559000000000001</v>
+      </c>
+    </row>
+    <row r="23" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="B23">
+        <v>6</v>
+      </c>
+      <c r="I23">
+        <v>8.1029999999999998</v>
+      </c>
+      <c r="J23">
+        <v>9.58</v>
+      </c>
+      <c r="K23">
+        <v>17.582000000000001</v>
+      </c>
+      <c r="N23">
+        <v>6</v>
+      </c>
+      <c r="U23">
+        <v>11.137</v>
+      </c>
+      <c r="V23">
+        <v>12.651</v>
+      </c>
+      <c r="W23">
+        <v>20.106000000000002</v>
+      </c>
+    </row>
+    <row r="24" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="B24">
+        <v>7</v>
+      </c>
+      <c r="I24">
+        <v>10.185</v>
+      </c>
+      <c r="J24">
+        <v>16.776</v>
+      </c>
+      <c r="K24">
+        <v>45.988999999999997</v>
+      </c>
+      <c r="N24">
+        <v>7</v>
+      </c>
+      <c r="U24">
+        <v>13.161</v>
+      </c>
+      <c r="V24">
+        <v>19.385999999999999</v>
+      </c>
+      <c r="W24">
+        <v>48.622</v>
+      </c>
+    </row>
+    <row r="28" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>0</v>
+      </c>
+      <c r="B28" t="s">
+        <v>1</v>
+      </c>
+      <c r="C28" t="s">
+        <v>2</v>
+      </c>
+      <c r="D28" t="s">
+        <v>3</v>
+      </c>
+      <c r="F28" t="s">
+        <v>4</v>
+      </c>
+      <c r="G28" t="s">
+        <v>5</v>
+      </c>
+      <c r="H28" t="s">
+        <v>6</v>
+      </c>
+      <c r="I28" t="s">
+        <v>11</v>
+      </c>
+      <c r="J28" t="s">
+        <v>7</v>
+      </c>
+      <c r="K28" t="s">
+        <v>12</v>
+      </c>
+      <c r="M28" t="s">
+        <v>0</v>
+      </c>
+      <c r="N28" t="s">
+        <v>1</v>
+      </c>
+      <c r="O28" t="s">
+        <v>2</v>
+      </c>
+      <c r="P28" t="s">
+        <v>3</v>
+      </c>
+      <c r="R28" t="s">
+        <v>4</v>
+      </c>
+      <c r="S28" t="s">
+        <v>5</v>
+      </c>
+      <c r="T28" t="s">
+        <v>6</v>
+      </c>
+      <c r="U28" t="s">
+        <v>11</v>
+      </c>
+      <c r="V28" t="s">
+        <v>7</v>
+      </c>
+      <c r="W28" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="29" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>2</v>
+      </c>
+      <c r="B29">
+        <v>2</v>
+      </c>
+      <c r="C29">
+        <v>10</v>
+      </c>
+      <c r="D29" t="s">
+        <v>9</v>
+      </c>
+      <c r="F29">
+        <v>3</v>
+      </c>
+      <c r="G29">
+        <v>504</v>
+      </c>
+      <c r="H29" t="s">
+        <v>10</v>
+      </c>
+      <c r="M29">
+        <v>2</v>
+      </c>
+      <c r="N29">
+        <v>2</v>
+      </c>
+      <c r="O29">
+        <v>10</v>
+      </c>
+      <c r="P29" t="s">
+        <v>9</v>
+      </c>
+      <c r="R29">
+        <v>3</v>
+      </c>
+      <c r="S29">
+        <v>504</v>
+      </c>
+      <c r="T29" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="30" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="B30">
+        <v>3</v>
+      </c>
+      <c r="N30">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="B31">
+        <v>4</v>
+      </c>
+      <c r="N31">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="B32">
+        <v>5</v>
+      </c>
+      <c r="I32">
+        <v>4.0869999999999997</v>
+      </c>
+      <c r="J32">
+        <v>4.1909999999999998</v>
+      </c>
+      <c r="K32">
+        <v>4.7190000000000003</v>
+      </c>
+      <c r="N32">
+        <v>5</v>
+      </c>
+      <c r="U32">
+        <v>7.0979999999999999</v>
+      </c>
+      <c r="V32">
+        <v>7.1870000000000003</v>
+      </c>
+      <c r="W32">
+        <v>7.8049999999999997</v>
+      </c>
+    </row>
+    <row r="33" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B33">
+        <v>6</v>
+      </c>
+      <c r="I33">
+        <v>6.1269999999999998</v>
+      </c>
+      <c r="J33">
+        <v>6.9710000000000001</v>
+      </c>
+      <c r="K33">
+        <v>11.212999999999999</v>
+      </c>
+      <c r="N33">
+        <v>6</v>
+      </c>
+      <c r="U33">
+        <v>9.1280000000000001</v>
+      </c>
+      <c r="V33">
+        <v>9.6270000000000007</v>
+      </c>
+      <c r="W33">
+        <v>13.581</v>
+      </c>
+    </row>
+    <row r="34" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B34">
+        <v>7</v>
+      </c>
+      <c r="I34">
+        <v>8.1430000000000007</v>
+      </c>
+      <c r="J34">
+        <v>12.005000000000001</v>
+      </c>
+      <c r="K34">
+        <v>46.48</v>
+      </c>
+      <c r="N34">
+        <v>7</v>
+      </c>
+      <c r="U34">
+        <v>11.154</v>
+      </c>
+      <c r="V34">
+        <v>14.778</v>
+      </c>
+      <c r="W34">
+        <v>30.821000000000002</v>
+      </c>
+    </row>
+    <row r="35" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B35">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="36" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B36">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="38" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="G38" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="39" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="D39" t="s">
+        <v>15</v>
+      </c>
+      <c r="E39" t="s">
+        <v>16</v>
+      </c>
+      <c r="F39" t="s">
+        <v>17</v>
+      </c>
+      <c r="G39" t="s">
+        <v>18</v>
+      </c>
+      <c r="H39" t="s">
+        <v>19</v>
+      </c>
+      <c r="I39" t="s">
+        <v>20</v>
+      </c>
+      <c r="J39" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="40" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="C40">
+        <v>2</v>
+      </c>
+      <c r="D40">
+        <f>I2</f>
+        <v>2.077</v>
+      </c>
+    </row>
+    <row r="41" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="C41">
+        <v>3</v>
+      </c>
+      <c r="D41">
+        <f>I3</f>
+        <v>4.1029999999999998</v>
+      </c>
+      <c r="E41">
+        <f>I11</f>
+        <v>4.0789999999999997</v>
+      </c>
+      <c r="H41">
+        <f>U11</f>
+        <v>7.0960000000000001</v>
+      </c>
+    </row>
+    <row r="42" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B42" t="s">
+        <v>1</v>
+      </c>
+      <c r="C42">
+        <v>4</v>
+      </c>
+      <c r="D42">
+        <f>I4</f>
+        <v>6.1349999999999998</v>
+      </c>
+      <c r="E42">
+        <f>I12</f>
+        <v>6.11</v>
+      </c>
+      <c r="F42">
+        <f>I21</f>
+        <v>4.0860000000000003</v>
+      </c>
+      <c r="H42">
+        <f>U12</f>
+        <v>9.125</v>
+      </c>
+      <c r="I42">
+        <f>U21</f>
+        <v>7.0979999999999999</v>
+      </c>
+    </row>
+    <row r="43" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="C43">
+        <v>5</v>
+      </c>
+      <c r="D43">
+        <f>I5</f>
+        <v>8.1690000000000005</v>
+      </c>
+      <c r="E43">
+        <f t="shared" ref="E43:E45" si="0">I13</f>
+        <v>8.1449999999999996</v>
+      </c>
+      <c r="F43">
+        <f>I22</f>
+        <v>6.1210000000000004</v>
+      </c>
+      <c r="G43">
+        <f>I32</f>
+        <v>4.0869999999999997</v>
+      </c>
+      <c r="H43">
+        <f>U13</f>
+        <v>11.157</v>
+      </c>
+      <c r="I43">
+        <f>U22</f>
+        <v>9.1210000000000004</v>
+      </c>
+      <c r="J43">
+        <f>U32</f>
+        <v>7.0979999999999999</v>
+      </c>
+    </row>
+    <row r="44" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="C44">
+        <v>6</v>
+      </c>
+      <c r="D44">
+        <f>I6</f>
+        <v>10.106999999999999</v>
+      </c>
+      <c r="E44">
+        <f t="shared" si="0"/>
+        <v>10.169</v>
+      </c>
+      <c r="F44">
+        <f>I23</f>
+        <v>8.1029999999999998</v>
+      </c>
+      <c r="G44">
+        <f>I33</f>
+        <v>6.1269999999999998</v>
+      </c>
+      <c r="H44">
+        <f>U14</f>
+        <v>13.15</v>
+      </c>
+      <c r="I44">
+        <f>U23</f>
+        <v>11.137</v>
+      </c>
+      <c r="J44">
+        <f>U33</f>
+        <v>9.1280000000000001</v>
+      </c>
+    </row>
+    <row r="45" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="C45">
+        <v>7</v>
+      </c>
+      <c r="D45">
+        <f>I7</f>
+        <v>12.093999999999999</v>
+      </c>
+      <c r="E45">
+        <f t="shared" si="0"/>
+        <v>12.194000000000001</v>
+      </c>
+      <c r="F45">
+        <f>I24</f>
+        <v>10.185</v>
+      </c>
+      <c r="G45">
+        <f>I34</f>
+        <v>8.1430000000000007</v>
+      </c>
+      <c r="H45">
+        <f>U15</f>
+        <v>15.1</v>
+      </c>
+      <c r="I45">
+        <f>U24</f>
+        <v>13.161</v>
+      </c>
+      <c r="J45">
+        <f>U34</f>
+        <v>11.154</v>
+      </c>
+    </row>
+    <row r="49" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="G49" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="50" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="D50" t="s">
+        <v>15</v>
+      </c>
+      <c r="E50" t="s">
+        <v>16</v>
+      </c>
+      <c r="F50" t="s">
+        <v>17</v>
+      </c>
+      <c r="G50" t="s">
+        <v>18</v>
+      </c>
+      <c r="H50" t="s">
+        <v>19</v>
+      </c>
+      <c r="I50" t="s">
+        <v>20</v>
+      </c>
+      <c r="J50" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="51" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="C51">
+        <v>2</v>
+      </c>
+      <c r="D51">
+        <f>J2</f>
+        <v>2.234</v>
+      </c>
+    </row>
+    <row r="52" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="C52">
+        <v>3</v>
+      </c>
+      <c r="D52">
+        <f>J3</f>
+        <v>4.3879999999999999</v>
+      </c>
+      <c r="E52">
+        <f>J11</f>
+        <v>4.2519999999999998</v>
+      </c>
+      <c r="H52">
+        <f>V11</f>
+        <v>7.25</v>
+      </c>
+    </row>
+    <row r="53" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="B53" t="s">
+        <v>1</v>
+      </c>
+      <c r="C53">
+        <v>4</v>
+      </c>
+      <c r="D53">
+        <f>J4</f>
+        <v>6.5789999999999997</v>
+      </c>
+      <c r="E53">
+        <f>J12</f>
+        <v>6.3360000000000003</v>
+      </c>
+      <c r="F53">
+        <f>J21</f>
+        <v>4.1749999999999998</v>
+      </c>
+      <c r="H53">
+        <f>V12</f>
+        <v>9.3759999999999994</v>
+      </c>
+      <c r="I53">
+        <f>V21</f>
+        <v>7.2350000000000003</v>
+      </c>
+    </row>
+    <row r="54" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="C54">
+        <v>5</v>
+      </c>
+      <c r="D54">
+        <f>J5</f>
+        <v>8.7460000000000004</v>
+      </c>
+      <c r="E54">
+        <f>J13</f>
+        <v>8.8759999999999994</v>
+      </c>
+      <c r="F54">
+        <f>J22</f>
+        <v>6.2939999999999996</v>
+      </c>
+      <c r="G54">
+        <f>J32</f>
+        <v>4.1909999999999998</v>
+      </c>
+      <c r="H54">
+        <f>V13</f>
+        <v>11.819000000000001</v>
+      </c>
+      <c r="I54">
+        <f>V22</f>
+        <v>10.365</v>
+      </c>
+      <c r="J54">
+        <f>V32</f>
+        <v>7.1870000000000003</v>
+      </c>
+    </row>
+    <row r="55" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="C55">
+        <v>6</v>
+      </c>
+      <c r="D55">
+        <f>J6</f>
+        <v>12.672000000000001</v>
+      </c>
+      <c r="E55">
+        <f>J14</f>
+        <v>11.121</v>
+      </c>
+      <c r="F55">
+        <f>J23</f>
+        <v>9.58</v>
+      </c>
+      <c r="G55">
+        <f>J33</f>
+        <v>6.9710000000000001</v>
+      </c>
+      <c r="H55">
+        <f>V14</f>
+        <v>15.273</v>
+      </c>
+      <c r="I55">
+        <f>V23</f>
+        <v>12.651</v>
+      </c>
+      <c r="J55">
+        <f>V33</f>
+        <v>9.6270000000000007</v>
+      </c>
+    </row>
+    <row r="56" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="C56">
+        <v>7</v>
+      </c>
+      <c r="D56">
+        <f>J7</f>
+        <v>23.786000000000001</v>
+      </c>
+      <c r="E56">
+        <f>J15</f>
+        <v>20.175000000000001</v>
+      </c>
+      <c r="F56">
+        <f>J24</f>
+        <v>16.776</v>
+      </c>
+      <c r="G56">
+        <f>J34</f>
+        <v>12.005000000000001</v>
+      </c>
+      <c r="H56">
+        <f>V15</f>
+        <v>24.8</v>
+      </c>
+      <c r="I56">
+        <f>V24</f>
+        <v>19.385999999999999</v>
+      </c>
+      <c r="J56">
+        <f>V34</f>
+        <v>14.778</v>
+      </c>
+    </row>
+    <row r="59" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AF59" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="61" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>0</v>
+      </c>
+      <c r="B61" t="s">
+        <v>1</v>
+      </c>
+      <c r="C61" t="s">
+        <v>2</v>
+      </c>
+      <c r="D61" t="s">
+        <v>3</v>
+      </c>
+      <c r="F61" t="s">
+        <v>4</v>
+      </c>
+      <c r="G61" t="s">
+        <v>5</v>
+      </c>
+      <c r="H61" t="s">
+        <v>6</v>
+      </c>
+      <c r="I61" t="s">
+        <v>11</v>
+      </c>
+      <c r="J61" t="s">
+        <v>7</v>
+      </c>
+      <c r="K61" t="s">
+        <v>12</v>
+      </c>
+      <c r="V61" t="s">
+        <v>28</v>
+      </c>
+      <c r="W61">
+        <v>1</v>
+      </c>
+      <c r="X61">
+        <v>2</v>
+      </c>
+      <c r="Y61">
+        <v>3</v>
+      </c>
+      <c r="Z61">
+        <v>4</v>
+      </c>
+      <c r="AA61">
+        <v>5</v>
+      </c>
+      <c r="AB61">
+        <v>6</v>
+      </c>
+      <c r="AC61">
+        <v>7</v>
+      </c>
+      <c r="AD61">
+        <v>8</v>
+      </c>
+      <c r="AE61">
+        <v>9</v>
+      </c>
+      <c r="AF61">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="62" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>2</v>
+      </c>
+      <c r="B62">
+        <v>2</v>
+      </c>
+      <c r="C62">
+        <v>10</v>
+      </c>
+      <c r="D62" t="s">
+        <v>26</v>
+      </c>
+      <c r="F62" t="s">
+        <v>8</v>
+      </c>
+      <c r="G62">
+        <v>504</v>
+      </c>
+      <c r="I62">
+        <v>20.064</v>
+      </c>
+      <c r="J62">
+        <v>20.25</v>
+      </c>
+      <c r="K62">
+        <v>20.978999999999999</v>
+      </c>
+      <c r="U62">
+        <v>2</v>
+      </c>
+      <c r="V62">
+        <v>2.0790000000000002</v>
+      </c>
+    </row>
+    <row r="63" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="B63">
+        <v>3</v>
+      </c>
+      <c r="I63">
+        <v>40.112000000000002</v>
+      </c>
+      <c r="J63">
+        <v>40.412999999999997</v>
+      </c>
+      <c r="K63">
+        <v>41.645000000000003</v>
+      </c>
+      <c r="U63">
+        <v>3</v>
+      </c>
+      <c r="V63">
+        <v>4.1050000000000004</v>
+      </c>
+      <c r="W63">
+        <v>4.0709999999999997</v>
+      </c>
+    </row>
+    <row r="64" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="B64">
+        <v>4</v>
+      </c>
+      <c r="I64">
+        <v>60.140999999999998</v>
+      </c>
+      <c r="J64">
+        <v>60.587000000000003</v>
+      </c>
+      <c r="K64">
+        <v>62.363</v>
+      </c>
+      <c r="T64" t="s">
+        <v>1</v>
+      </c>
+      <c r="U64">
+        <v>4</v>
+      </c>
+      <c r="V64">
+        <v>6.1349999999999998</v>
+      </c>
+      <c r="W64">
+        <v>6.1159999999999997</v>
+      </c>
+      <c r="X64">
+        <v>4.0910000000000002</v>
+      </c>
+    </row>
+    <row r="65" spans="2:32" x14ac:dyDescent="0.25">
+      <c r="B65">
+        <v>5</v>
+      </c>
+      <c r="I65">
+        <v>80.114999999999995</v>
+      </c>
+      <c r="J65">
+        <v>80.527000000000001</v>
+      </c>
+      <c r="K65">
+        <v>63.65</v>
+      </c>
+      <c r="U65">
+        <v>5</v>
+      </c>
+      <c r="V65">
+        <v>8.1549999999999994</v>
+      </c>
+      <c r="W65">
+        <v>8.1419999999999995</v>
+      </c>
+      <c r="X65">
+        <v>6.1159999999999997</v>
+      </c>
+      <c r="Y65">
+        <v>4.0819999999999999</v>
+      </c>
+    </row>
+    <row r="66" spans="2:32" x14ac:dyDescent="0.25">
+      <c r="B66">
+        <v>6</v>
+      </c>
+      <c r="I66">
+        <v>100.196</v>
+      </c>
+      <c r="J66">
+        <v>100.99</v>
+      </c>
+      <c r="K66">
+        <v>104.496</v>
+      </c>
+      <c r="U66">
+        <v>6</v>
+      </c>
+      <c r="V66">
+        <v>10.182</v>
+      </c>
+      <c r="W66">
+        <v>10.114000000000001</v>
+      </c>
+      <c r="X66">
+        <v>8.1020000000000003</v>
+      </c>
+      <c r="Y66">
+        <v>6.1079999999999997</v>
+      </c>
+      <c r="Z66">
+        <v>4.0949999999999998</v>
+      </c>
+    </row>
+    <row r="67" spans="2:32" x14ac:dyDescent="0.25">
+      <c r="B67">
+        <v>7</v>
+      </c>
+      <c r="I67">
+        <v>120.24299999999999</v>
+      </c>
+      <c r="J67">
+        <v>121.03400000000001</v>
+      </c>
+      <c r="K67">
+        <v>125.155</v>
+      </c>
+      <c r="U67">
+        <v>7</v>
+      </c>
+      <c r="V67">
+        <v>12.21</v>
+      </c>
+      <c r="W67">
+        <v>12.183</v>
+      </c>
+      <c r="X67">
+        <v>10.162000000000001</v>
+      </c>
+      <c r="Y67">
+        <v>8.0790000000000006</v>
+      </c>
+      <c r="Z67">
+        <v>6.1260000000000003</v>
+      </c>
+      <c r="AA67">
+        <v>4.0940000000000003</v>
+      </c>
+    </row>
+    <row r="68" spans="2:32" x14ac:dyDescent="0.25">
+      <c r="I68">
+        <v>140.268</v>
+      </c>
+      <c r="J68">
+        <v>141.32300000000001</v>
+      </c>
+      <c r="K68">
+        <v>146.19900000000001</v>
+      </c>
+      <c r="U68">
+        <v>8</v>
+      </c>
+      <c r="V68">
+        <v>14.228999999999999</v>
+      </c>
+      <c r="W68">
+        <v>14.244999999999999</v>
+      </c>
+      <c r="X68">
+        <v>12.188000000000001</v>
+      </c>
+      <c r="Y68">
+        <v>10.172000000000001</v>
+      </c>
+      <c r="Z68">
+        <v>8.0809999999999995</v>
+      </c>
+      <c r="AA68">
+        <v>6.1289999999999996</v>
+      </c>
+      <c r="AB68">
+        <v>4.069</v>
+      </c>
+    </row>
+    <row r="69" spans="2:32" x14ac:dyDescent="0.25">
+      <c r="I69">
+        <v>160.315</v>
+      </c>
+      <c r="J69">
+        <v>161.72800000000001</v>
+      </c>
+      <c r="K69">
+        <v>167.262</v>
+      </c>
+      <c r="U69">
+        <v>9</v>
+      </c>
+      <c r="V69">
+        <v>16.251999999999999</v>
+      </c>
+      <c r="W69">
+        <v>16.253</v>
+      </c>
+      <c r="X69">
+        <v>14.223000000000001</v>
+      </c>
+      <c r="Y69">
+        <v>12.199</v>
+      </c>
+      <c r="Z69">
+        <v>10.220000000000001</v>
+      </c>
+      <c r="AA69">
+        <v>8.1310000000000002</v>
+      </c>
+      <c r="AB69">
+        <v>6.1159999999999997</v>
+      </c>
+      <c r="AC69">
+        <v>4.093</v>
+      </c>
+    </row>
+    <row r="70" spans="2:32" x14ac:dyDescent="0.25">
+      <c r="I70">
+        <v>180.321</v>
+      </c>
+      <c r="J70">
+        <v>181.45</v>
+      </c>
+      <c r="K70">
+        <v>189.08</v>
+      </c>
+      <c r="U70">
+        <v>10</v>
+      </c>
+      <c r="V70">
+        <v>18.289000000000001</v>
+      </c>
+      <c r="W70">
+        <v>18.265999999999998</v>
+      </c>
+      <c r="X70">
+        <v>16.231999999999999</v>
+      </c>
+      <c r="Y70">
+        <v>14.212</v>
+      </c>
+      <c r="Z70">
+        <v>12.192</v>
+      </c>
+      <c r="AA70">
+        <v>10.170999999999999</v>
+      </c>
+      <c r="AB70">
+        <v>8.1440000000000001</v>
+      </c>
+      <c r="AC70">
+        <v>6.1150000000000002</v>
+      </c>
+      <c r="AD70">
+        <v>4.0940000000000003</v>
+      </c>
+    </row>
+    <row r="71" spans="2:32" x14ac:dyDescent="0.25">
+      <c r="I71">
+        <v>200.37100000000001</v>
+      </c>
+      <c r="J71">
+        <v>201.95699999999999</v>
+      </c>
+      <c r="K71">
+        <v>208.73099999999999</v>
+      </c>
+      <c r="U71">
+        <v>11</v>
+      </c>
+      <c r="V71">
+        <v>20.323</v>
+      </c>
+      <c r="W71">
+        <v>20.343</v>
+      </c>
+      <c r="X71">
+        <v>18.309999999999999</v>
+      </c>
+      <c r="Y71">
+        <v>16.251999999999999</v>
+      </c>
+      <c r="Z71">
+        <v>14.215999999999999</v>
+      </c>
+      <c r="AA71">
+        <v>12.183999999999999</v>
+      </c>
+      <c r="AB71">
+        <v>10.173999999999999</v>
+      </c>
+      <c r="AC71">
+        <v>8.1370000000000005</v>
+      </c>
+      <c r="AD71">
+        <v>6.1180000000000003</v>
+      </c>
+      <c r="AE71">
+        <v>4.085</v>
+      </c>
+    </row>
+    <row r="72" spans="2:32" x14ac:dyDescent="0.25">
+      <c r="I72">
+        <v>220.38900000000001</v>
+      </c>
+      <c r="J72">
+        <v>222.35300000000001</v>
+      </c>
+      <c r="K72">
+        <v>229.654</v>
+      </c>
+      <c r="U72">
+        <v>12</v>
+      </c>
+      <c r="V72">
+        <v>22.376000000000001</v>
+      </c>
+      <c r="W72">
+        <v>22.350999999999999</v>
+      </c>
+      <c r="X72">
+        <v>20.309000000000001</v>
+      </c>
+      <c r="Y72">
+        <v>18.273</v>
+      </c>
+      <c r="Z72">
+        <v>16.236000000000001</v>
+      </c>
+      <c r="AA72">
+        <v>14.222</v>
+      </c>
+      <c r="AB72">
+        <v>12.22</v>
+      </c>
+      <c r="AC72">
+        <v>10.16</v>
+      </c>
+      <c r="AD72">
+        <v>8.1530000000000005</v>
+      </c>
+      <c r="AE72">
+        <v>6.1239999999999997</v>
+      </c>
+      <c r="AF72">
+        <v>4.0919999999999996</v>
+      </c>
+    </row>
+    <row r="73" spans="2:32" x14ac:dyDescent="0.25">
+      <c r="I73">
+        <v>240.43299999999999</v>
+      </c>
+      <c r="J73">
+        <v>241.84899999999999</v>
+      </c>
+      <c r="K73">
+        <v>252.18600000000001</v>
+      </c>
+      <c r="U73">
+        <v>13</v>
+      </c>
+      <c r="V73">
+        <v>24.402999999999999</v>
+      </c>
+      <c r="W73">
+        <v>24.385999999999999</v>
+      </c>
+      <c r="X73">
+        <v>22.361000000000001</v>
+      </c>
+      <c r="Y73">
+        <v>20.323</v>
+      </c>
+      <c r="Z73">
+        <v>18.288</v>
+      </c>
+      <c r="AA73">
+        <v>16.262</v>
+      </c>
+      <c r="AB73">
+        <v>14.25</v>
+      </c>
+      <c r="AC73">
+        <v>12.207000000000001</v>
+      </c>
+      <c r="AD73">
+        <v>10.173999999999999</v>
+      </c>
+      <c r="AE73">
+        <v>8.1389999999999993</v>
+      </c>
+      <c r="AF73">
+        <v>6.1120000000000001</v>
+      </c>
+    </row>
+    <row r="74" spans="2:32" x14ac:dyDescent="0.25">
+      <c r="I74">
+        <v>260.47399999999999</v>
+      </c>
+      <c r="J74">
+        <v>262.37</v>
+      </c>
+      <c r="K74">
+        <v>270.40100000000001</v>
+      </c>
+      <c r="U74">
+        <v>14</v>
+      </c>
+      <c r="V74">
+        <v>26.193999999999999</v>
+      </c>
+      <c r="W74">
+        <v>26.419</v>
+      </c>
+      <c r="X74">
+        <v>24.381</v>
+      </c>
+      <c r="Y74">
+        <v>22.337</v>
+      </c>
+      <c r="Z74">
+        <v>20.305</v>
+      </c>
+      <c r="AA74">
+        <v>18.279</v>
+      </c>
+      <c r="AB74">
+        <v>16.263999999999999</v>
+      </c>
+      <c r="AC74">
+        <v>14.21</v>
+      </c>
+      <c r="AD74">
+        <v>12.204000000000001</v>
+      </c>
+      <c r="AE74">
+        <v>10.17</v>
+      </c>
+      <c r="AF74">
+        <v>8.1579999999999995</v>
+      </c>
+    </row>
+    <row r="75" spans="2:32" x14ac:dyDescent="0.25">
+      <c r="I75">
+        <v>280.47199999999998</v>
+      </c>
+      <c r="J75">
+        <v>284.238</v>
+      </c>
+      <c r="K75">
+        <v>304.64800000000002</v>
+      </c>
+      <c r="U75">
+        <v>15</v>
+      </c>
+      <c r="V75">
+        <v>28.468</v>
+      </c>
+      <c r="W75">
+        <v>28.443000000000001</v>
+      </c>
+      <c r="X75">
+        <v>26.4</v>
+      </c>
+      <c r="Y75">
+        <v>24.382000000000001</v>
+      </c>
+      <c r="Z75">
+        <v>22.361999999999998</v>
+      </c>
+      <c r="AA75">
+        <v>20.297000000000001</v>
+      </c>
+      <c r="AB75">
+        <v>18.297000000000001</v>
+      </c>
+      <c r="AC75">
+        <v>16.238</v>
+      </c>
+      <c r="AD75">
+        <v>14.215</v>
+      </c>
+      <c r="AE75">
+        <v>12.188000000000001</v>
+      </c>
+      <c r="AF75">
+        <v>10.161</v>
+      </c>
+    </row>
+    <row r="76" spans="2:32" x14ac:dyDescent="0.25">
+      <c r="I76">
+        <v>300.51900000000001</v>
+      </c>
+      <c r="J76">
+        <v>303.86900000000003</v>
+      </c>
+      <c r="K76">
+        <v>319.34399999999999</v>
+      </c>
+      <c r="U76">
+        <v>16</v>
+      </c>
+      <c r="V76">
+        <v>30.446000000000002</v>
+      </c>
+      <c r="W76">
+        <v>30.507999999999999</v>
+      </c>
+      <c r="X76">
+        <v>28.449000000000002</v>
+      </c>
+      <c r="Y76">
+        <v>26.419</v>
+      </c>
+      <c r="Z76">
+        <v>24.388999999999999</v>
+      </c>
+      <c r="AA76">
+        <v>22.460999999999999</v>
+      </c>
+      <c r="AB76">
+        <v>20.323</v>
+      </c>
+      <c r="AC76">
+        <v>18.315000000000001</v>
+      </c>
+      <c r="AD76">
+        <v>16.25</v>
+      </c>
+      <c r="AE76">
+        <v>14.221</v>
+      </c>
+      <c r="AF76">
+        <v>12.193</v>
+      </c>
+    </row>
+    <row r="77" spans="2:32" x14ac:dyDescent="0.25">
+      <c r="I77">
+        <v>320.46499999999997</v>
+      </c>
+      <c r="J77">
+        <v>322.995</v>
+      </c>
+      <c r="K77">
+        <v>332.76499999999999</v>
+      </c>
+      <c r="U77">
+        <v>17</v>
+      </c>
+      <c r="V77">
+        <v>32.512</v>
+      </c>
+      <c r="W77">
+        <v>32.523000000000003</v>
+      </c>
+      <c r="X77">
+        <v>30.504000000000001</v>
+      </c>
+      <c r="Y77">
+        <v>28.456</v>
+      </c>
+      <c r="Z77">
+        <v>26.437000000000001</v>
+      </c>
+      <c r="AA77">
+        <v>24.349</v>
+      </c>
+      <c r="AB77">
+        <v>22.306000000000001</v>
+      </c>
+      <c r="AC77">
+        <v>20.295000000000002</v>
+      </c>
+      <c r="AD77">
+        <v>18.303999999999998</v>
+      </c>
+      <c r="AE77">
+        <v>16.25</v>
+      </c>
+      <c r="AF77">
+        <v>14.225</v>
+      </c>
+    </row>
+    <row r="78" spans="2:32" x14ac:dyDescent="0.25">
+      <c r="I78">
+        <v>340.55</v>
+      </c>
+      <c r="J78">
+        <v>343.06900000000002</v>
+      </c>
+      <c r="K78">
+        <v>354.839</v>
+      </c>
+      <c r="U78">
+        <v>18</v>
+      </c>
+      <c r="V78">
+        <v>34.526000000000003</v>
+      </c>
+      <c r="W78">
+        <v>34.515000000000001</v>
+      </c>
+      <c r="X78">
+        <v>32.485999999999997</v>
+      </c>
+      <c r="Y78">
+        <v>30.436</v>
+      </c>
+      <c r="Z78">
+        <v>28.427</v>
+      </c>
+      <c r="AA78">
+        <v>26.451000000000001</v>
+      </c>
+      <c r="AB78">
+        <v>24.385000000000002</v>
+      </c>
+      <c r="AC78">
+        <v>22.327999999999999</v>
+      </c>
+      <c r="AD78">
+        <v>20.315000000000001</v>
+      </c>
+      <c r="AE78">
+        <v>18.318999999999999</v>
+      </c>
+      <c r="AF78">
+        <v>16.236000000000001</v>
+      </c>
+    </row>
+    <row r="79" spans="2:32" x14ac:dyDescent="0.25">
+      <c r="I79">
+        <v>360.63</v>
+      </c>
+      <c r="J79">
+        <v>363.971</v>
+      </c>
+      <c r="K79">
+        <v>378.41500000000002</v>
+      </c>
+      <c r="U79">
+        <v>19</v>
+      </c>
+      <c r="V79">
+        <v>36.615000000000002</v>
+      </c>
+      <c r="W79">
+        <v>36.545000000000002</v>
+      </c>
+      <c r="X79">
+        <v>34.36</v>
+      </c>
+      <c r="Y79">
+        <v>32.53</v>
+      </c>
+      <c r="Z79">
+        <v>30.593</v>
+      </c>
+      <c r="AA79">
+        <v>28.454000000000001</v>
+      </c>
+      <c r="AB79">
+        <v>26.298999999999999</v>
+      </c>
+      <c r="AC79">
+        <v>24.391999999999999</v>
+      </c>
+      <c r="AD79">
+        <v>22.332999999999998</v>
+      </c>
+      <c r="AE79">
+        <v>20.326000000000001</v>
+      </c>
+      <c r="AF79">
+        <v>18.266999999999999</v>
+      </c>
+    </row>
+    <row r="80" spans="2:32" x14ac:dyDescent="0.25">
+      <c r="I80">
+        <v>380.65</v>
+      </c>
+      <c r="J80">
+        <v>382.548</v>
+      </c>
+      <c r="K80">
+        <v>396.60300000000001</v>
+      </c>
+      <c r="U80">
+        <v>20</v>
+      </c>
+      <c r="V80">
+        <v>38.594000000000001</v>
+      </c>
+      <c r="W80">
+        <v>38.628999999999998</v>
+      </c>
+      <c r="X80">
+        <v>36.383000000000003</v>
+      </c>
+      <c r="Y80">
+        <v>34.268999999999998</v>
+      </c>
+      <c r="Z80">
+        <v>32.520000000000003</v>
+      </c>
+      <c r="AA80">
+        <v>30.488</v>
+      </c>
+      <c r="AB80">
+        <v>28.454999999999998</v>
+      </c>
+      <c r="AC80">
+        <v>26.396999999999998</v>
+      </c>
+      <c r="AD80">
+        <v>24.367999999999999</v>
+      </c>
+      <c r="AE80">
+        <v>22.294</v>
+      </c>
+      <c r="AF80">
+        <v>20.337</v>
+      </c>
+    </row>
+    <row r="81" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="I81">
+        <v>400.66399999999999</v>
+      </c>
+      <c r="J81">
+        <v>407.96600000000001</v>
+      </c>
+      <c r="K81">
+        <v>451.84</v>
+      </c>
+    </row>
+    <row r="82" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="I82">
+        <v>420.66800000000001</v>
+      </c>
+      <c r="J82">
+        <v>424.63600000000002</v>
+      </c>
+      <c r="K82">
+        <v>445.93599999999998</v>
+      </c>
+    </row>
+    <row r="83" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="I83">
+        <v>440.71800000000002</v>
+      </c>
+      <c r="J83">
+        <v>445.69600000000003</v>
+      </c>
+      <c r="K83">
+        <v>464.78699999999998</v>
+      </c>
+    </row>
+    <row r="84" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="I84">
+        <v>460.66699999999997</v>
+      </c>
+      <c r="J84">
+        <v>466.01400000000001</v>
+      </c>
+      <c r="K84">
+        <v>488.4</v>
+      </c>
+    </row>
+    <row r="85" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="I85">
+        <v>480.673</v>
+      </c>
+      <c r="J85">
+        <v>484.92</v>
+      </c>
+      <c r="K85">
+        <v>510.92599999999999</v>
+      </c>
+    </row>
+    <row r="86" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="I86">
+        <v>500.75900000000001</v>
+      </c>
+      <c r="J86">
+        <v>505.86200000000002</v>
+      </c>
+      <c r="K86">
+        <v>543.86599999999999</v>
+      </c>
+    </row>
+    <row r="87" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="I87">
+        <v>520.79999999999995</v>
+      </c>
+      <c r="J87">
+        <v>526.83799999999997</v>
+      </c>
+      <c r="K87">
+        <v>576.01800000000003</v>
+      </c>
+    </row>
+    <row r="88" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="I88">
+        <v>540.79</v>
+      </c>
+      <c r="J88">
+        <v>553.85199999999998</v>
+      </c>
+      <c r="K88">
+        <v>644.08100000000002</v>
+      </c>
+    </row>
+    <row r="89" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="I89">
+        <v>560.85500000000002</v>
+      </c>
+      <c r="J89">
+        <v>577.09400000000005</v>
+      </c>
+      <c r="K89">
+        <v>679.346</v>
+      </c>
+    </row>
+    <row r="90" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="I90">
+        <v>580.94899999999996</v>
+      </c>
+      <c r="J90">
+        <v>599.00300000000004</v>
+      </c>
+      <c r="K90">
+        <v>730.45899999999995</v>
+      </c>
+    </row>
+    <row r="94" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>0</v>
+      </c>
+      <c r="B94" t="s">
+        <v>1</v>
+      </c>
+      <c r="C94" t="s">
+        <v>2</v>
+      </c>
+      <c r="D94" t="s">
+        <v>3</v>
+      </c>
+      <c r="F94" t="s">
+        <v>4</v>
+      </c>
+      <c r="G94" t="s">
+        <v>5</v>
+      </c>
+      <c r="H94" t="s">
+        <v>6</v>
+      </c>
+      <c r="I94" t="s">
+        <v>11</v>
+      </c>
+      <c r="J94" t="s">
+        <v>7</v>
+      </c>
+      <c r="K94" t="s">
+        <v>12</v>
+      </c>
+      <c r="M94" t="s">
+        <v>0</v>
+      </c>
+      <c r="N94" t="s">
+        <v>1</v>
+      </c>
+      <c r="O94" t="s">
+        <v>2</v>
+      </c>
+      <c r="P94" t="s">
+        <v>3</v>
+      </c>
+      <c r="R94" t="s">
+        <v>4</v>
+      </c>
+      <c r="S94" t="s">
+        <v>5</v>
+      </c>
+      <c r="T94" t="s">
+        <v>6</v>
+      </c>
+      <c r="U94" t="s">
+        <v>11</v>
+      </c>
+      <c r="V94" t="s">
+        <v>7</v>
+      </c>
+      <c r="W94" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="95" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A95">
+        <v>2</v>
+      </c>
+      <c r="B95">
+        <v>2</v>
+      </c>
+      <c r="C95">
+        <v>10</v>
+      </c>
+      <c r="D95" t="s">
+        <v>9</v>
+      </c>
+      <c r="F95">
+        <v>1</v>
+      </c>
+      <c r="G95">
+        <v>504</v>
+      </c>
+      <c r="H95" t="s">
+        <v>27</v>
+      </c>
+      <c r="M95">
+        <v>2</v>
+      </c>
+      <c r="N95">
+        <v>2</v>
+      </c>
+      <c r="O95">
+        <v>10</v>
+      </c>
+      <c r="P95" t="s">
+        <v>9</v>
+      </c>
+      <c r="R95">
+        <v>1</v>
+      </c>
+      <c r="S95">
+        <v>504</v>
+      </c>
+      <c r="T95" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="96" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="B96">
+        <v>3</v>
+      </c>
+      <c r="I96">
+        <v>40.097000000000001</v>
+      </c>
+      <c r="J96">
+        <v>40.25</v>
+      </c>
+      <c r="K96">
+        <v>41.308</v>
+      </c>
+      <c r="N96">
+        <v>3</v>
+      </c>
+      <c r="U96">
+        <v>7.0960000000000001</v>
+      </c>
+      <c r="V96">
+        <v>7.25</v>
+      </c>
+      <c r="W96">
+        <v>7.8129999999999997</v>
+      </c>
+    </row>
+    <row r="97" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B97">
+        <v>4</v>
+      </c>
+      <c r="I97">
+        <v>60.116</v>
+      </c>
+      <c r="J97">
+        <v>60.715000000000003</v>
+      </c>
+      <c r="K97">
+        <v>64.47</v>
+      </c>
+      <c r="N97">
+        <v>4</v>
+      </c>
+      <c r="U97">
+        <v>9.125</v>
+      </c>
+      <c r="V97">
+        <v>9.3759999999999994</v>
+      </c>
+      <c r="W97">
+        <v>10.196</v>
+      </c>
+    </row>
+    <row r="98" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B98">
+        <v>5</v>
+      </c>
+      <c r="I98">
+        <v>80.177999999999997</v>
+      </c>
+      <c r="J98">
+        <v>80.649000000000001</v>
+      </c>
+      <c r="K98">
+        <v>82.733999999999995</v>
+      </c>
+      <c r="N98">
+        <v>5</v>
+      </c>
+      <c r="U98">
+        <v>11.157</v>
+      </c>
+      <c r="V98">
+        <v>11.819000000000001</v>
+      </c>
+      <c r="W98">
+        <v>14.94</v>
+      </c>
+    </row>
+    <row r="99" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B99">
+        <v>6</v>
+      </c>
+      <c r="I99">
+        <v>100.15300000000001</v>
+      </c>
+      <c r="J99">
+        <v>100.70099999999999</v>
+      </c>
+      <c r="K99">
+        <v>104.42</v>
+      </c>
+      <c r="N99">
+        <v>6</v>
+      </c>
+      <c r="U99">
+        <v>13.15</v>
+      </c>
+      <c r="V99">
+        <v>15.273</v>
+      </c>
+      <c r="W99">
+        <v>26.824000000000002</v>
+      </c>
+    </row>
+    <row r="100" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B100">
+        <v>7</v>
+      </c>
+      <c r="I100">
+        <v>120.194</v>
+      </c>
+      <c r="J100">
+        <v>121.63200000000001</v>
+      </c>
+      <c r="K100">
+        <v>129.13999999999999</v>
+      </c>
+      <c r="N100">
+        <v>7</v>
+      </c>
+      <c r="U100">
+        <v>15.1</v>
+      </c>
+      <c r="V100">
+        <v>24.8</v>
+      </c>
+      <c r="W100">
+        <v>67.394999999999996</v>
+      </c>
+    </row>
+    <row r="160" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B160">
+        <v>8</v>
+      </c>
+      <c r="I160" t="s">
+        <v>8</v>
+      </c>
+      <c r="J160" t="s">
+        <v>8</v>
+      </c>
+      <c r="K160" t="s">
+        <v>8</v>
+      </c>
+      <c r="N160">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="162" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A162" t="s">
+        <v>0</v>
+      </c>
+      <c r="B162" t="s">
+        <v>1</v>
+      </c>
+      <c r="C162" t="s">
+        <v>2</v>
+      </c>
+      <c r="D162" t="s">
+        <v>3</v>
+      </c>
+      <c r="F162" t="s">
+        <v>4</v>
+      </c>
+      <c r="G162" t="s">
+        <v>5</v>
+      </c>
+      <c r="H162" t="s">
+        <v>6</v>
+      </c>
+      <c r="I162" t="s">
+        <v>11</v>
+      </c>
+      <c r="J162" t="s">
+        <v>7</v>
+      </c>
+      <c r="K162" t="s">
+        <v>12</v>
+      </c>
+      <c r="M162" t="s">
+        <v>0</v>
+      </c>
+      <c r="N162" t="s">
+        <v>1</v>
+      </c>
+      <c r="O162" t="s">
+        <v>2</v>
+      </c>
+      <c r="P162" t="s">
+        <v>3</v>
+      </c>
+      <c r="R162" t="s">
+        <v>4</v>
+      </c>
+      <c r="S162" t="s">
+        <v>5</v>
+      </c>
+      <c r="T162" t="s">
+        <v>6</v>
+      </c>
+      <c r="U162" t="s">
+        <v>11</v>
+      </c>
+      <c r="V162" t="s">
+        <v>7</v>
+      </c>
+      <c r="W162" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="163" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A163">
+        <v>2</v>
+      </c>
+      <c r="B163">
+        <v>2</v>
+      </c>
+      <c r="C163">
+        <v>10</v>
+      </c>
+      <c r="D163" t="s">
+        <v>9</v>
+      </c>
+      <c r="F163">
+        <v>2</v>
+      </c>
+      <c r="G163">
+        <v>504</v>
+      </c>
+      <c r="H163" t="s">
+        <v>10</v>
+      </c>
+      <c r="M163">
+        <v>2</v>
+      </c>
+      <c r="N163">
+        <v>2</v>
+      </c>
+      <c r="O163">
+        <v>10</v>
+      </c>
+      <c r="P163" t="s">
+        <v>9</v>
+      </c>
+      <c r="R163">
+        <v>2</v>
+      </c>
+      <c r="S163">
+        <v>504</v>
+      </c>
+      <c r="T163" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="164" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="B164">
+        <v>3</v>
+      </c>
+      <c r="N164">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="165" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="B165">
+        <v>4</v>
+      </c>
+      <c r="I165">
+        <v>4.0860000000000003</v>
+      </c>
+      <c r="J165">
+        <v>4.1749999999999998</v>
+      </c>
+      <c r="K165">
+        <v>4.6379999999999999</v>
+      </c>
+      <c r="N165">
+        <v>4</v>
+      </c>
+      <c r="U165">
+        <v>7.0979999999999999</v>
+      </c>
+      <c r="V165">
+        <v>7.2350000000000003</v>
+      </c>
+      <c r="W165">
+        <v>7.7859999999999996</v>
+      </c>
+    </row>
+    <row r="166" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="B166">
+        <v>5</v>
+      </c>
+      <c r="I166">
+        <v>6.1210000000000004</v>
+      </c>
+      <c r="J166">
+        <v>6.2939999999999996</v>
+      </c>
+      <c r="K166">
+        <v>7.2709999999999999</v>
+      </c>
+      <c r="N166">
+        <v>5</v>
+      </c>
+      <c r="U166">
+        <v>9.1210000000000004</v>
+      </c>
+      <c r="V166">
+        <v>10.365</v>
+      </c>
+      <c r="W166">
+        <v>20.559000000000001</v>
+      </c>
+    </row>
+    <row r="167" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="B167">
+        <v>6</v>
+      </c>
+      <c r="I167">
+        <v>8.1029999999999998</v>
+      </c>
+      <c r="J167">
+        <v>9.58</v>
+      </c>
+      <c r="K167">
+        <v>17.582000000000001</v>
+      </c>
+      <c r="N167">
+        <v>6</v>
+      </c>
+      <c r="U167">
+        <v>11.137</v>
+      </c>
+      <c r="V167">
+        <v>12.651</v>
+      </c>
+      <c r="W167">
+        <v>20.106000000000002</v>
+      </c>
+    </row>
+    <row r="168" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="B168">
+        <v>7</v>
+      </c>
+      <c r="I168">
+        <v>10.185</v>
+      </c>
+      <c r="J168">
+        <v>16.776</v>
+      </c>
+      <c r="K168">
+        <v>45.988999999999997</v>
+      </c>
+      <c r="N168">
+        <v>7</v>
+      </c>
+      <c r="U168">
+        <v>13.161</v>
+      </c>
+      <c r="V168">
+        <v>19.385999999999999</v>
+      </c>
+      <c r="W168">
+        <v>48.622</v>
+      </c>
+    </row>
+    <row r="172" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A172" t="s">
+        <v>0</v>
+      </c>
+      <c r="B172" t="s">
+        <v>1</v>
+      </c>
+      <c r="C172" t="s">
+        <v>2</v>
+      </c>
+      <c r="D172" t="s">
+        <v>3</v>
+      </c>
+      <c r="F172" t="s">
+        <v>4</v>
+      </c>
+      <c r="G172" t="s">
+        <v>5</v>
+      </c>
+      <c r="H172" t="s">
+        <v>6</v>
+      </c>
+      <c r="I172" t="s">
+        <v>11</v>
+      </c>
+      <c r="J172" t="s">
+        <v>7</v>
+      </c>
+      <c r="K172" t="s">
+        <v>12</v>
+      </c>
+      <c r="M172" t="s">
+        <v>0</v>
+      </c>
+      <c r="N172" t="s">
+        <v>1</v>
+      </c>
+      <c r="O172" t="s">
+        <v>2</v>
+      </c>
+      <c r="P172" t="s">
+        <v>3</v>
+      </c>
+      <c r="R172" t="s">
+        <v>4</v>
+      </c>
+      <c r="S172" t="s">
+        <v>5</v>
+      </c>
+      <c r="T172" t="s">
+        <v>6</v>
+      </c>
+      <c r="U172" t="s">
+        <v>11</v>
+      </c>
+      <c r="V172" t="s">
+        <v>7</v>
+      </c>
+      <c r="W172" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="173" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A173">
+        <v>2</v>
+      </c>
+      <c r="B173">
+        <v>2</v>
+      </c>
+      <c r="C173">
+        <v>10</v>
+      </c>
+      <c r="D173" t="s">
+        <v>9</v>
+      </c>
+      <c r="F173">
+        <v>3</v>
+      </c>
+      <c r="G173">
+        <v>504</v>
+      </c>
+      <c r="H173" t="s">
+        <v>10</v>
+      </c>
+      <c r="M173">
+        <v>2</v>
+      </c>
+      <c r="N173">
+        <v>2</v>
+      </c>
+      <c r="O173">
+        <v>10</v>
+      </c>
+      <c r="P173" t="s">
+        <v>9</v>
+      </c>
+      <c r="R173">
+        <v>3</v>
+      </c>
+      <c r="S173">
+        <v>504</v>
+      </c>
+      <c r="T173" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="174" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="B174">
+        <v>3</v>
+      </c>
+      <c r="N174">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="175" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="B175">
+        <v>4</v>
+      </c>
+      <c r="N175">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="176" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="B176">
+        <v>5</v>
+      </c>
+      <c r="I176">
+        <v>4.0869999999999997</v>
+      </c>
+      <c r="J176">
+        <v>4.1909999999999998</v>
+      </c>
+      <c r="K176">
+        <v>4.7190000000000003</v>
+      </c>
+      <c r="N176">
+        <v>5</v>
+      </c>
+      <c r="U176">
+        <v>7.0979999999999999</v>
+      </c>
+      <c r="V176">
+        <v>7.1870000000000003</v>
+      </c>
+      <c r="W176">
+        <v>7.8049999999999997</v>
+      </c>
+    </row>
+    <row r="177" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B177">
+        <v>6</v>
+      </c>
+      <c r="I177">
+        <v>6.1269999999999998</v>
+      </c>
+      <c r="J177">
+        <v>6.9710000000000001</v>
+      </c>
+      <c r="K177">
+        <v>11.212999999999999</v>
+      </c>
+      <c r="N177">
+        <v>6</v>
+      </c>
+      <c r="U177">
+        <v>9.1280000000000001</v>
+      </c>
+      <c r="V177">
+        <v>9.6270000000000007</v>
+      </c>
+      <c r="W177">
+        <v>13.581</v>
+      </c>
+    </row>
+    <row r="178" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B178">
+        <v>7</v>
+      </c>
+      <c r="I178">
+        <v>8.1430000000000007</v>
+      </c>
+      <c r="J178">
+        <v>12.005000000000001</v>
+      </c>
+      <c r="K178">
+        <v>46.48</v>
+      </c>
+      <c r="N178">
+        <v>7</v>
+      </c>
+      <c r="U178">
+        <v>11.154</v>
+      </c>
+      <c r="V178">
+        <v>14.778</v>
+      </c>
+      <c r="W178">
+        <v>30.821000000000002</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>